--- a/docs/電腦繪圖國中乙組靜態類決賽名冊.xlsx
+++ b/docs/電腦繪圖國中乙組靜態類決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="電腦繪圖國中乙組靜態類決賽名冊" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="221">
   <si>
     <t>序</t>
   </si>
@@ -48,139 +48,142 @@
     <t>電腦繪圖國中乙組靜態類</t>
   </si>
   <si>
+    <t>大甲區日南國中</t>
+  </si>
+  <si>
+    <t>莊侑展</t>
+  </si>
+  <si>
+    <t>陳隆勝</t>
+  </si>
+  <si>
+    <t>Windows 小畫家</t>
+  </si>
+  <si>
+    <t>gwh98rs4</t>
+  </si>
+  <si>
+    <t>w54jk5</t>
+  </si>
+  <si>
     <t>大安區大安國中</t>
   </si>
   <si>
-    <t>張嘉臻</t>
-  </si>
-  <si>
-    <t>葉奕君</t>
-  </si>
-  <si>
-    <t>Windows 小畫家</t>
-  </si>
-  <si>
-    <t>et60b2</t>
-  </si>
-  <si>
-    <t>bj86jk1</t>
-  </si>
-  <si>
-    <t>大里區市立大里高中</t>
+    <t>張瑋真</t>
+  </si>
+  <si>
+    <t>蔡啟堂</t>
+  </si>
+  <si>
+    <t>Krita 4.1.7</t>
+  </si>
+  <si>
+    <t>et70cd1</t>
+  </si>
+  <si>
+    <t>d20bj4</t>
+  </si>
+  <si>
+    <t>大里區大里高中</t>
+  </si>
+  <si>
+    <t>賴映瑄</t>
+  </si>
+  <si>
+    <t>吳秀玲</t>
+  </si>
+  <si>
+    <t>nc41xb3</t>
+  </si>
+  <si>
+    <t>etv34a3</t>
   </si>
   <si>
     <t>林琪臻</t>
   </si>
   <si>
-    <t>吳秀玲</t>
-  </si>
-  <si>
-    <t>MyPaint 1.2.1</t>
-  </si>
-  <si>
-    <t>p66y5</t>
-  </si>
-  <si>
-    <t>jk56tv3</t>
-  </si>
-  <si>
-    <t>林宜亭</t>
-  </si>
-  <si>
-    <t>pet33m3</t>
-  </si>
-  <si>
-    <t>nc42bj7</t>
+    <t>bj45s6</t>
+  </si>
+  <si>
+    <t>kfr46rs4</t>
   </si>
   <si>
     <t>大里區立人高中</t>
   </si>
   <si>
-    <t>賴芓涵</t>
+    <t>林庭妤</t>
   </si>
   <si>
     <t>黃月君</t>
   </si>
   <si>
-    <t>et36wh3</t>
-  </si>
-  <si>
-    <t>frs90k5</t>
-  </si>
-  <si>
-    <t>大雅區國立中科實中</t>
-  </si>
-  <si>
-    <t>吳庭箏</t>
-  </si>
-  <si>
-    <t>陳雅琪</t>
-  </si>
-  <si>
-    <t>Krita 3.3.3</t>
-  </si>
-  <si>
-    <t>ygw70xb7</t>
-  </si>
-  <si>
-    <t>wh67w1</t>
-  </si>
-  <si>
-    <t>武曾意丹</t>
-  </si>
-  <si>
-    <t>cd18rs1</t>
-  </si>
-  <si>
-    <t>j98a4</t>
+    <t>bj34y3</t>
+  </si>
+  <si>
+    <t>sm31pe5</t>
+  </si>
+  <si>
+    <t>吳敏瑄</t>
+  </si>
+  <si>
+    <t>nc45b3</t>
+  </si>
+  <si>
+    <t>bjk20yg2</t>
+  </si>
+  <si>
+    <t>太平區華盛頓中學</t>
+  </si>
+  <si>
+    <t>張書淇</t>
+  </si>
+  <si>
+    <t>林冠文</t>
+  </si>
+  <si>
+    <t>kf98gw7</t>
+  </si>
+  <si>
+    <t>cd64w8</t>
   </si>
   <si>
     <t>北屯區三光國中</t>
   </si>
   <si>
-    <t>陳奕妘</t>
+    <t>吳伊庭</t>
   </si>
   <si>
     <t>卓永祥</t>
   </si>
   <si>
-    <t>etv44sm4</t>
-  </si>
-  <si>
-    <t>xb30bj9</t>
-  </si>
-  <si>
-    <t>梁廣映</t>
-  </si>
-  <si>
-    <t>rs27tv5</t>
-  </si>
-  <si>
-    <t>ncd13k9</t>
-  </si>
-  <si>
-    <t>賴奕亘</t>
-  </si>
-  <si>
-    <t>pet97y4</t>
-  </si>
-  <si>
-    <t>rsm13pe9</t>
+    <t>whp31e2</t>
+  </si>
+  <si>
+    <t>jkf22pe3</t>
+  </si>
+  <si>
+    <t>林思宥</t>
+  </si>
+  <si>
+    <t>xb31n4</t>
+  </si>
+  <si>
+    <t>nc65xb2</t>
   </si>
   <si>
     <t>北屯區四張犁國中</t>
   </si>
   <si>
-    <t>江胤成</t>
+    <t>許家凌</t>
   </si>
   <si>
     <t>林炎瑩</t>
   </si>
   <si>
-    <t>fr27yg6</t>
-  </si>
-  <si>
-    <t>rsm50f4</t>
+    <t>bj21fr7</t>
+  </si>
+  <si>
+    <t>etv22rs4</t>
   </si>
   <si>
     <t>北區立人國中</t>
@@ -192,97 +195,85 @@
     <t>高士瑛</t>
   </si>
   <si>
-    <t>a7v7</t>
-  </si>
-  <si>
-    <t>cdx59m1</t>
-  </si>
-  <si>
-    <t>林佩岑</t>
-  </si>
-  <si>
-    <t>Gimp 2.8</t>
-  </si>
-  <si>
-    <t>b85c8</t>
-  </si>
-  <si>
-    <t>my72hp1</t>
-  </si>
-  <si>
-    <t>王芓涵</t>
-  </si>
-  <si>
-    <t>kfr16sm7</t>
-  </si>
-  <si>
-    <t>sm33dx5</t>
+    <t>whp52r6</t>
+  </si>
+  <si>
+    <t>r31et9</t>
+  </si>
+  <si>
+    <t>北區新民高中</t>
+  </si>
+  <si>
+    <t>許宛庭</t>
+  </si>
+  <si>
+    <t>賴信安</t>
+  </si>
+  <si>
+    <t>k30e9</t>
+  </si>
+  <si>
+    <t>m30h4</t>
   </si>
   <si>
     <t>北區曉明女中</t>
   </si>
   <si>
-    <t>許恩嘉</t>
+    <t>曾翊嘉</t>
   </si>
   <si>
     <t>劉國聲</t>
   </si>
   <si>
-    <t>g21j8</t>
-  </si>
-  <si>
-    <t>bj29sm4</t>
-  </si>
-  <si>
-    <t>曾翊甯</t>
-  </si>
-  <si>
-    <t>cdx3sm6</t>
-  </si>
-  <si>
-    <t>hpe56fr3</t>
-  </si>
-  <si>
-    <t>廖翊婷</t>
-  </si>
-  <si>
-    <t>bjk53cd6</t>
-  </si>
-  <si>
-    <t>my5my3</t>
-  </si>
-  <si>
-    <t>曾翊嘉</t>
-  </si>
-  <si>
-    <t>cd18e7</t>
-  </si>
-  <si>
-    <t>t66gw6</t>
+    <t>f60sm3</t>
+  </si>
+  <si>
+    <t>jk69n2</t>
+  </si>
+  <si>
+    <t>許馨云</t>
+  </si>
+  <si>
+    <t>jkf27h8</t>
+  </si>
+  <si>
+    <t>yg45bj3</t>
+  </si>
+  <si>
+    <t>盧家愛</t>
+  </si>
+  <si>
+    <t>tv81tv2</t>
+  </si>
+  <si>
+    <t>nc57pe9</t>
+  </si>
+  <si>
+    <t>呂維軒</t>
+  </si>
+  <si>
+    <t>cd80fr3</t>
+  </si>
+  <si>
+    <t>gwh4k4</t>
   </si>
   <si>
     <t>外埔區外埔國中</t>
   </si>
   <si>
-    <t>顧佳蓉</t>
+    <t>吳修芳</t>
   </si>
   <si>
     <t>林麗貞</t>
   </si>
   <si>
-    <t>et54et4</t>
-  </si>
-  <si>
-    <t>k76dx5</t>
-  </si>
-  <si>
-    <t>吳修芳</t>
-  </si>
-  <si>
-    <t>j41h6</t>
-  </si>
-  <si>
-    <t>smy68kf4</t>
+    <t>Gimp 2.10.8</t>
+  </si>
+  <si>
+    <t>w19x2</t>
+  </si>
+  <si>
+    <t>kfr80xb4</t>
   </si>
   <si>
     <t>石岡區石岡國中</t>
@@ -291,43 +282,79 @@
     <t>孫卉佳</t>
   </si>
   <si>
-    <t>鄧育泙</t>
-  </si>
-  <si>
-    <t>m94t8</t>
-  </si>
-  <si>
-    <t>pet61x5</t>
+    <t>詹耀宗</t>
+  </si>
+  <si>
+    <t>b14w6</t>
+  </si>
+  <si>
+    <t>dx32w2</t>
   </si>
   <si>
     <t>后里區后里國中</t>
   </si>
   <si>
-    <t>陳奕璇</t>
-  </si>
-  <si>
-    <t>劉怡君</t>
-  </si>
-  <si>
-    <t>jk27c6</t>
-  </si>
-  <si>
-    <t>cd75rs6</t>
-  </si>
-  <si>
-    <t>西屯區中山國中</t>
-  </si>
-  <si>
-    <t>張哿</t>
-  </si>
-  <si>
-    <t>何孟杰</t>
-  </si>
-  <si>
-    <t>fr4n2</t>
-  </si>
-  <si>
-    <t>p63dx5</t>
+    <t>陳宥騏</t>
+  </si>
+  <si>
+    <t>李秦宇</t>
+  </si>
+  <si>
+    <t>b98e9</t>
+  </si>
+  <si>
+    <t>dx93c5</t>
+  </si>
+  <si>
+    <t>羅婕綾</t>
+  </si>
+  <si>
+    <t>cdx49r4</t>
+  </si>
+  <si>
+    <t>my95et2</t>
+  </si>
+  <si>
+    <t>西屯區安和國中</t>
+  </si>
+  <si>
+    <t>陳伶</t>
+  </si>
+  <si>
+    <t>龍玉珍</t>
+  </si>
+  <si>
+    <t>s28f8</t>
+  </si>
+  <si>
+    <t>ygw61et2</t>
+  </si>
+  <si>
+    <t>詹妙宣</t>
+  </si>
+  <si>
+    <t>f61tv8</t>
+  </si>
+  <si>
+    <t>kf50h4</t>
+  </si>
+  <si>
+    <t>李韋涵</t>
+  </si>
+  <si>
+    <t>et37jk8</t>
+  </si>
+  <si>
+    <t>jk16jk4</t>
+  </si>
+  <si>
+    <t>吳倖彣</t>
+  </si>
+  <si>
+    <t>pe27j9</t>
+  </si>
+  <si>
+    <t>bj88v8</t>
   </si>
   <si>
     <t>西屯區至善國中</t>
@@ -339,43 +366,34 @@
     <t>蔡善閔</t>
   </si>
   <si>
-    <t>tv56pe5</t>
-  </si>
-  <si>
-    <t>pe71dx2</t>
+    <t>b34h3</t>
+  </si>
+  <si>
+    <t>h97rs8</t>
   </si>
   <si>
     <t>羅小語</t>
   </si>
   <si>
-    <t>ygw3tv6</t>
-  </si>
-  <si>
-    <t>smy27dx2</t>
-  </si>
-  <si>
-    <t>黃奕涵</t>
-  </si>
-  <si>
-    <t>sm88hp7</t>
-  </si>
-  <si>
-    <t>h48v9</t>
+    <t>kf71jk8</t>
+  </si>
+  <si>
+    <t>my94m9</t>
   </si>
   <si>
     <t>沙鹿區北勢國中</t>
   </si>
   <si>
-    <t>吳采亭</t>
+    <t>蔡沁妤</t>
   </si>
   <si>
     <t>杜建勳</t>
   </si>
   <si>
-    <t>hp70w6</t>
-  </si>
-  <si>
-    <t>hp82wh1</t>
+    <t>my54kf9</t>
+  </si>
+  <si>
+    <t>x21my7</t>
   </si>
   <si>
     <t>東區育英國中</t>
@@ -387,229 +405,253 @@
     <t>童尚宏</t>
   </si>
   <si>
-    <t>Inkscape 0.92.2</t>
-  </si>
-  <si>
-    <t>g9et3</t>
-  </si>
-  <si>
-    <t>sm64hp7</t>
-  </si>
-  <si>
-    <t>東勢區東華國中</t>
-  </si>
-  <si>
-    <t>徐敏軒</t>
-  </si>
-  <si>
-    <t>薛丞佑</t>
-  </si>
-  <si>
-    <t>xb87m4</t>
-  </si>
-  <si>
-    <t>e5bj4</t>
-  </si>
-  <si>
-    <t>朱怡君</t>
-  </si>
-  <si>
-    <t>sm75hp8</t>
-  </si>
-  <si>
-    <t>h93p4</t>
-  </si>
-  <si>
-    <t>東勢區東新國中</t>
-  </si>
-  <si>
-    <t>詹家茹</t>
-  </si>
-  <si>
-    <t>吳宜軒</t>
-  </si>
-  <si>
-    <t>h84n2</t>
-  </si>
-  <si>
-    <t>whp51f3</t>
+    <t>Inkscape 0.92.3</t>
+  </si>
+  <si>
+    <t>tv27sm1</t>
+  </si>
+  <si>
+    <t>cd89f1</t>
   </si>
   <si>
     <t>南屯區大墩國中</t>
   </si>
   <si>
+    <t>何庭妮</t>
+  </si>
+  <si>
+    <t>陳盛澤</t>
+  </si>
+  <si>
+    <t>yg9dx6</t>
+  </si>
+  <si>
+    <t>wh4s4</t>
+  </si>
+  <si>
+    <t>吳昕錞</t>
+  </si>
+  <si>
+    <t>et71n2</t>
+  </si>
+  <si>
+    <t>xb83gw8</t>
+  </si>
+  <si>
     <t>黃品蒨</t>
   </si>
   <si>
     <t>鍾承翰</t>
   </si>
   <si>
-    <t>kf79k4</t>
-  </si>
-  <si>
-    <t>ygw72s4</t>
-  </si>
-  <si>
-    <t>吳昕錞</t>
-  </si>
-  <si>
-    <t>dx93gw6</t>
-  </si>
-  <si>
-    <t>my25yg1</t>
-  </si>
-  <si>
-    <t>何庭妮</t>
-  </si>
-  <si>
-    <t>xb83x9</t>
-  </si>
-  <si>
-    <t>bj52pe7</t>
+    <t>xbj35m6</t>
+  </si>
+  <si>
+    <t>v34d9</t>
+  </si>
+  <si>
+    <t>吳妮諺</t>
+  </si>
+  <si>
+    <t>林保庭</t>
+  </si>
+  <si>
+    <t>frs89et5</t>
+  </si>
+  <si>
+    <t>gwh28jk3</t>
+  </si>
+  <si>
+    <t>南屯區惠文高中</t>
+  </si>
+  <si>
+    <t>汪其珈</t>
+  </si>
+  <si>
+    <t>連政煌</t>
+  </si>
+  <si>
+    <t>gw48y3</t>
+  </si>
+  <si>
+    <t>yg14a6</t>
+  </si>
+  <si>
+    <t>何宜臻</t>
+  </si>
+  <si>
+    <t>cdx16m5</t>
+  </si>
+  <si>
+    <t>anc59gw3</t>
   </si>
   <si>
     <t>烏日區烏日國中</t>
   </si>
   <si>
-    <t>楊欣悅</t>
+    <t>陳乙瑄</t>
   </si>
   <si>
     <t>張淑貞</t>
   </si>
   <si>
-    <t>r98r5</t>
-  </si>
-  <si>
-    <t>kf15p3</t>
-  </si>
-  <si>
-    <t>陳依瑩</t>
-  </si>
-  <si>
-    <t>c79n5</t>
-  </si>
-  <si>
-    <t>k46et8</t>
-  </si>
-  <si>
-    <t>楊年婷</t>
-  </si>
-  <si>
-    <t>gw84j5</t>
-  </si>
-  <si>
-    <t>fr46m8</t>
-  </si>
-  <si>
-    <t>劉珉華</t>
-  </si>
-  <si>
-    <t>pe35fr2</t>
-  </si>
-  <si>
-    <t>yg83bj4</t>
-  </si>
-  <si>
-    <t>神岡區神岡國中</t>
-  </si>
-  <si>
-    <t>林榭樺</t>
-  </si>
-  <si>
-    <t>黃正隆</t>
-  </si>
-  <si>
-    <t>xb89y8</t>
-  </si>
-  <si>
-    <t>gwh39t8</t>
+    <t>h88gw3</t>
+  </si>
+  <si>
+    <t>p7m6</t>
+  </si>
+  <si>
+    <t>陳耘芷</t>
+  </si>
+  <si>
+    <t>fr82r1</t>
+  </si>
+  <si>
+    <t>et58tv4</t>
+  </si>
+  <si>
+    <t>劉佑庭</t>
+  </si>
+  <si>
+    <t>gw74my3</t>
+  </si>
+  <si>
+    <t>pet91a8</t>
+  </si>
+  <si>
+    <t>施于恩</t>
+  </si>
+  <si>
+    <t>xb79sm9</t>
+  </si>
+  <si>
+    <t>et90my8</t>
+  </si>
+  <si>
+    <t>梧棲區梧棲國中</t>
+  </si>
+  <si>
+    <t>黃琳耕</t>
+  </si>
+  <si>
+    <t>陳有量</t>
+  </si>
+  <si>
+    <t>wh49yg7</t>
+  </si>
+  <si>
+    <t>kf13sm5</t>
   </si>
   <si>
     <t>清水區清泉國中</t>
   </si>
   <si>
-    <t>王辰嘉</t>
+    <t>林妤嫀</t>
   </si>
   <si>
     <t>林清煙</t>
   </si>
   <si>
-    <t>j44t2</t>
-  </si>
-  <si>
-    <t>jkf58yg8</t>
+    <t>jk94sm9</t>
+  </si>
+  <si>
+    <t>wh64tv6</t>
+  </si>
+  <si>
+    <t>林子祐</t>
+  </si>
+  <si>
+    <t>nc34y8</t>
+  </si>
+  <si>
+    <t>nc25tv5</t>
+  </si>
+  <si>
+    <t>李尚芸</t>
+  </si>
+  <si>
+    <t>et67pe7</t>
+  </si>
+  <si>
+    <t>nc72m5</t>
+  </si>
+  <si>
+    <t>潭子區弘文高中</t>
+  </si>
+  <si>
+    <t>唐千婷</t>
+  </si>
+  <si>
+    <t>張政豐</t>
+  </si>
+  <si>
+    <t>whp75gw3</t>
+  </si>
+  <si>
+    <t>b50n7</t>
   </si>
   <si>
     <t>龍井區四箴國中</t>
   </si>
   <si>
-    <t>侯宥妘</t>
+    <t>林鈺庭</t>
   </si>
   <si>
     <t>王穗芬</t>
   </si>
   <si>
-    <t>bjk51wh7</t>
-  </si>
-  <si>
-    <t>sm47g3</t>
+    <t>et41y4</t>
+  </si>
+  <si>
+    <t>yg50n5</t>
   </si>
   <si>
     <t>陳宜靖</t>
   </si>
   <si>
-    <t>a75a9</t>
-  </si>
-  <si>
-    <t>my76k8</t>
+    <t>myg97my1</t>
+  </si>
+  <si>
+    <t>dx24fr4</t>
   </si>
   <si>
     <t>蔡安庭</t>
   </si>
   <si>
-    <t>r60fr3</t>
-  </si>
-  <si>
-    <t>et19tv6</t>
-  </si>
-  <si>
-    <t>楊宛儒</t>
-  </si>
-  <si>
-    <t>my29xb7</t>
-  </si>
-  <si>
-    <t>bj10h6</t>
+    <t>pe8g4</t>
+  </si>
+  <si>
+    <t>n21dx9</t>
   </si>
   <si>
     <t>龍井區龍井國中</t>
   </si>
   <si>
-    <t>靳淇淇</t>
-  </si>
-  <si>
-    <t>陳殷諄</t>
-  </si>
-  <si>
-    <t>rs9rs3</t>
-  </si>
-  <si>
-    <t>dxb36w5</t>
-  </si>
-  <si>
-    <t>龍井區龍津高中</t>
-  </si>
-  <si>
-    <t>紀舒薰</t>
-  </si>
-  <si>
-    <t>謝佳玲</t>
-  </si>
-  <si>
-    <t>k76p1</t>
-  </si>
-  <si>
-    <t>an42et7</t>
+    <t>陳宛愉</t>
+  </si>
+  <si>
+    <t>梁永和</t>
+  </si>
+  <si>
+    <t>myg51j2</t>
+  </si>
+  <si>
+    <t>myg45r8</t>
+  </si>
+  <si>
+    <t>豐原區豐陽國中</t>
+  </si>
+  <si>
+    <t>游承璇</t>
+  </si>
+  <si>
+    <t>劉家浩</t>
+  </si>
+  <si>
+    <t>nc61my4</t>
+  </si>
+  <si>
+    <t>dx46f5</t>
   </si>
   <si>
     <t>霧峰區光復國中小</t>
@@ -618,58 +660,28 @@
     <t>張語桓</t>
   </si>
   <si>
-    <t>蔡進雄</t>
-  </si>
-  <si>
-    <t>dxb38cd4</t>
-  </si>
-  <si>
-    <t>fr71kf7</t>
-  </si>
-  <si>
-    <t>古博彥</t>
-  </si>
-  <si>
-    <t>蕭力旗</t>
-  </si>
-  <si>
-    <t>hp20kf3</t>
-  </si>
-  <si>
-    <t>dx24y4</t>
-  </si>
-  <si>
-    <t>朱珮毓</t>
-  </si>
-  <si>
-    <t>k95f2</t>
-  </si>
-  <si>
-    <t>a41p3</t>
-  </si>
-  <si>
-    <t>陳芊樺</t>
-  </si>
-  <si>
-    <t>tv35an4</t>
-  </si>
-  <si>
-    <t>anc19y2</t>
+    <t>游忠育</t>
+  </si>
+  <si>
+    <t>j62m6</t>
+  </si>
+  <si>
+    <t>j27k3</t>
   </si>
   <si>
     <t>霧峰區霧峰國中</t>
   </si>
   <si>
-    <t>張舒涵</t>
+    <t>賴靜慧</t>
   </si>
   <si>
     <t>曾立邦</t>
   </si>
   <si>
-    <t>j76an8</t>
-  </si>
-  <si>
-    <t>nc43hp4</t>
+    <t>x50fr6</t>
+  </si>
+  <si>
+    <t>sm79et7</t>
   </si>
 </sst>
 </file>
@@ -1671,12 +1683,12 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1765,22 +1777,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1791,13 +1803,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>18</v>
@@ -1826,13 +1838,13 @@
         <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1846,7 +1858,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>31</v>
@@ -1855,10 +1867,10 @@
         <v>18</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1869,22 +1881,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1895,22 +1907,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1921,22 +1933,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1947,22 +1959,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1973,22 +1985,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1999,22 +2011,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2025,22 +2037,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2051,22 +2063,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="F15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2077,22 +2089,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2103,22 +2115,22 @@
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2129,22 +2141,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2155,22 +2167,22 @@
         <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="G19" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2181,22 +2193,22 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2207,22 +2219,22 @@
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2233,22 +2245,22 @@
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2262,19 +2274,19 @@
         <v>98</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>100</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2285,22 +2297,22 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2311,22 +2323,22 @@
         <v>8</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2337,22 +2349,22 @@
         <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2363,22 +2375,22 @@
         <v>8</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="F27" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2389,16 +2401,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>123</v>
@@ -2424,13 +2436,13 @@
         <v>127</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2441,22 +2453,22 @@
         <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2467,22 +2479,22 @@
         <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="F31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2493,7 +2505,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>139</v>
@@ -2519,22 +2531,22 @@
         <v>8</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>143</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2545,22 +2557,22 @@
         <v>8</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2571,22 +2583,22 @@
         <v>8</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>151</v>
-      </c>
       <c r="F35" s="8" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2597,22 +2609,22 @@
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2623,22 +2635,22 @@
         <v>8</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>151</v>
-      </c>
       <c r="F37" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2649,22 +2661,22 @@
         <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2675,22 +2687,22 @@
         <v>8</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2701,22 +2713,22 @@
         <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2727,22 +2739,22 @@
         <v>8</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2753,22 +2765,22 @@
         <v>8</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2779,22 +2791,22 @@
         <v>8</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2805,22 +2817,22 @@
         <v>8</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2831,22 +2843,22 @@
         <v>8</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2857,22 +2869,22 @@
         <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="F46" s="5" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2883,22 +2895,22 @@
         <v>8</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>198</v>
       </c>
       <c r="E47" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="8" t="s">
+      <c r="H47" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2909,7 +2921,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>202</v>
@@ -2918,7 +2930,7 @@
         <v>203</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>204</v>
@@ -2935,22 +2947,22 @@
         <v>8</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2961,22 +2973,22 @@
         <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2987,22 +2999,22 @@
         <v>8</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
